--- a/相关资料/03 ASCMS灯具信息汇总/ASCMS 灯具信息汇总.xlsx
+++ b/相关资料/03 ASCMS灯具信息汇总/ASCMS 灯具信息汇总.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="142">
   <si>
     <t>驱动类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -69,19 +69,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>立式跑道灯具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>12寸</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>双路跑中12寸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双路跑中8寸</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1547,237 +1539,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LED立式进近中线灯
-LED Elevated Approach Centerline Light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL-AP-LED-C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">立式进近横排灯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LED Elevated Approach Crossbar Light</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">立式进近侧边灯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LED Elevated Approach Side Row Light</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL-SR-LED-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">立式跑道边灯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LED Elevated Runway Edge Light</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBL-RE-LED-YC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBL-RE-LED-CY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBL-RE-LED-CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBL-RE-LED-CR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBL-RE-LED-RC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">立式跑道入口灯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LED Elevated Runway Threshold Light</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL-TH-LED-G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">立式跑道入口翼排灯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LED Elevated Runway Threshold Wing-bar Light</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL-THW-LED-G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">立式跑道末端灯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LED Elevated Runway End Light</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL-ED-LED-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">立式停止排灯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LED Elevated Taxiway Stop Bar Light</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL-SB-LED-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>驱动对照表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1829,10 +1590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>立式跑道灯具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>驱动类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1852,153 +1609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双路跑中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寸</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双路跑中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寸</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双路跑中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寸</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高光强警戒灯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2008,6 +1618,158 @@
   </si>
   <si>
     <t>单路滑中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双路跑中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双路跑中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2015,7 +1777,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2050,13 +1812,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2121,12 +1876,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -2313,11 +2062,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2331,9 +2080,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2355,132 +2101,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2501,43 +2222,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2842,10 +2572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E28"/>
+  <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2858,182 +2588,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="64"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="59"/>
-      <c r="C6" s="7">
+    <row r="6" spans="2:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="49"/>
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="59"/>
-      <c r="C8" s="12">
+    <row r="8" spans="2:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="49"/>
+      <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>4</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="49"/>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="16">
+      <c r="E11" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="66">
+        <v>1</v>
+      </c>
+      <c r="D12" s="66">
         <v>0</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="E12" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="59"/>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="18">
-        <v>1</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>11</v>
-      </c>
+    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
@@ -3077,14 +2791,12 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="1"/>
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="1"/>
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3094,21 +2806,11 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:E3"/>
@@ -3122,1364 +2824,1164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G85"/>
+  <dimension ref="B1:G73"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="2" width="9" style="45"/>
-    <col min="3" max="3" width="18.125" style="45" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="56.75" style="45" customWidth="1"/>
-    <col min="5" max="5" width="23" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="9" style="33"/>
+    <col min="3" max="3" width="18.125" style="33" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="56.75" style="33" customWidth="1"/>
+    <col min="5" max="5" width="23" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="2:7" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
+      <c r="B1" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="2:7" s="17" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="F2" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="D3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24">
-        <v>1</v>
-      </c>
-      <c r="C3" s="48" t="s">
+      <c r="E3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="F3" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="G6" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>5</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <v>6</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <v>7</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>8</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
+        <v>9</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="56"/>
+    </row>
+    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
+        <v>10</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
+        <v>11</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
+        <v>12</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18">
+        <v>13</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18">
+        <v>14</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="56"/>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
+        <v>15</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
+        <v>17</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="56"/>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
+        <v>18</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="56"/>
+    </row>
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
+        <v>19</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="56"/>
+    </row>
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="18">
+        <v>20</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="56"/>
+    </row>
+    <row r="23" spans="2:7" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="22">
+        <v>46</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="56"/>
+    </row>
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="18">
+        <v>21</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18">
+        <v>22</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="18">
         <v>23</v>
       </c>
-      <c r="F3" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24">
-        <v>2</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="66" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="67"/>
+    </row>
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="18">
+        <v>24</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="67"/>
+    </row>
+    <row r="28" spans="2:7" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="22">
+        <v>42</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="22">
+        <v>43</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="56"/>
+    </row>
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="18">
         <v>25</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="C30" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="18">
         <v>26</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24">
-        <v>3</v>
-      </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="27" t="s">
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="56"/>
+    </row>
+    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="18">
         <v>27</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="68"/>
-    </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24">
-        <v>4</v>
-      </c>
-      <c r="C6" s="65" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="56"/>
+    </row>
+    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="18">
         <v>28</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="56"/>
+    </row>
+    <row r="34" spans="2:7" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="22">
+        <v>44</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="G34" s="56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="22">
+        <v>45</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="56"/>
+    </row>
+    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="18">
+        <v>29</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="18">
         <v>30</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24">
-        <v>5</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="27" t="s">
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="56"/>
+    </row>
+    <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="18">
+        <v>31</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="18">
         <v>32</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="68"/>
-    </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
-        <v>6</v>
-      </c>
-      <c r="C8" s="65" t="s">
+      <c r="C39" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="18">
         <v>33</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="C40" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="18">
         <v>34</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="C41" s="62"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="56"/>
+    </row>
+    <row r="42" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="18">
         <v>35</v>
       </c>
-      <c r="F8" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
-        <v>7</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="27" t="s">
+      <c r="C42" s="62"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="56"/>
+    </row>
+    <row r="43" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="18">
         <v>36</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="68"/>
-    </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
-        <v>8</v>
-      </c>
-      <c r="C10" s="65" t="s">
+      <c r="C43" s="62"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="56"/>
+    </row>
+    <row r="44" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="18">
         <v>37</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="C44" s="62"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="56"/>
+    </row>
+    <row r="45" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="18">
         <v>38</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="C45" s="62"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="56"/>
+    </row>
+    <row r="46" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="18">
         <v>39</v>
       </c>
-      <c r="F10" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
-        <v>9</v>
-      </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="27" t="s">
+      <c r="C46" s="62"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="56"/>
+    </row>
+    <row r="47" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="18">
         <v>40</v>
       </c>
-      <c r="F11" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="68"/>
-    </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24">
-        <v>10</v>
-      </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="27" t="s">
+      <c r="C47" s="62"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="56"/>
+    </row>
+    <row r="48" spans="2:7" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="22">
+        <v>47</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="56"/>
+    </row>
+    <row r="49" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="18">
         <v>41</v>
       </c>
-      <c r="F12" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="68"/>
-    </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24">
-        <v>11</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
-        <v>12</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="68"/>
-    </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24">
-        <v>13</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="68"/>
-    </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="24">
-        <v>14</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="68"/>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
-        <v>15</v>
-      </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="27" t="s">
+      <c r="C49" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="18">
         <v>48</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="68"/>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24">
-        <v>16</v>
-      </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="27" t="s">
+      <c r="C50" s="20"/>
+      <c r="D50" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="18">
         <v>49</v>
       </c>
-      <c r="F18" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="68"/>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
-        <v>17</v>
-      </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="27" t="s">
+      <c r="C51" s="20"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="56"/>
+    </row>
+    <row r="52" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="18">
         <v>50</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="68"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="24">
-        <v>18</v>
-      </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="27" t="s">
+      <c r="C52" s="20"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" s="56"/>
+    </row>
+    <row r="53" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="18">
         <v>51</v>
       </c>
-      <c r="F20" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="68"/>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="24">
-        <v>19</v>
-      </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="27" t="s">
+      <c r="C53" s="20"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53" s="56"/>
+    </row>
+    <row r="54" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="18">
         <v>52</v>
       </c>
-      <c r="F21" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="68"/>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24">
-        <v>20</v>
-      </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="27" t="s">
+      <c r="C54" s="20"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" s="56"/>
+    </row>
+    <row r="55" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="18">
         <v>53</v>
       </c>
-      <c r="F22" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="68"/>
-    </row>
-    <row r="23" spans="2:7" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28">
-        <v>46</v>
-      </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="27" t="s">
+      <c r="C55" s="20"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G55" s="56"/>
+    </row>
+    <row r="56" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="18">
         <v>54</v>
       </c>
-      <c r="F23" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="68"/>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="24">
-        <v>21</v>
-      </c>
-      <c r="C24" s="48" t="s">
+      <c r="C56" s="20"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G56" s="56"/>
+    </row>
+    <row r="57" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="18">
         <v>55</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="C57" s="20"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" s="56"/>
+    </row>
+    <row r="58" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="18">
         <v>56</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="24">
-        <v>22</v>
-      </c>
-      <c r="C25" s="65" t="s">
+      <c r="C58" s="20"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" s="56"/>
+    </row>
+    <row r="59" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="18">
+        <v>67</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="56"/>
+    </row>
+    <row r="60" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="27">
         <v>58</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="C60" s="28"/>
+      <c r="D60" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60" s="55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="27">
         <v>59</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="C61" s="28"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="56"/>
+    </row>
+    <row r="62" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="27">
         <v>60</v>
       </c>
-      <c r="F25" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="68" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="24">
-        <v>23</v>
-      </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="27" t="s">
+      <c r="C62" s="28"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" s="56"/>
+    </row>
+    <row r="63" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="18">
         <v>61</v>
       </c>
-      <c r="F26" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="68"/>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24">
-        <v>24</v>
-      </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="27" t="s">
+      <c r="C63" s="20"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63" s="56"/>
+    </row>
+    <row r="64" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="18">
         <v>62</v>
       </c>
-      <c r="F27" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="68"/>
-    </row>
-    <row r="28" spans="2:7" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="28">
-        <v>42</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="27" t="s">
+      <c r="C64" s="20"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="56"/>
+    </row>
+    <row r="65" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="27">
         <v>63</v>
       </c>
-      <c r="F28" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="68"/>
-    </row>
-    <row r="29" spans="2:7" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="28">
-        <v>43</v>
-      </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="27" t="s">
+      <c r="C65" s="28"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F65" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G65" s="56"/>
+    </row>
+    <row r="66" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="27">
         <v>64</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="68"/>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="24">
-        <v>25</v>
-      </c>
-      <c r="C30" s="65" t="s">
+      <c r="C66" s="28"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G66" s="56"/>
+    </row>
+    <row r="67" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="27">
         <v>65</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="C67" s="28"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G67" s="56"/>
+    </row>
+    <row r="68" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="18">
         <v>66</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="C68" s="20"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G68" s="56"/>
+    </row>
+    <row r="69" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="18">
         <v>67</v>
       </c>
-      <c r="F30" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="24">
-        <v>26</v>
-      </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="25" t="s">
+      <c r="C69" s="20"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G69" s="56"/>
+    </row>
+    <row r="70" spans="2:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="30">
         <v>68</v>
       </c>
-      <c r="F31" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="68"/>
-    </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="24">
-        <v>27</v>
-      </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="25" t="s">
+      <c r="C70" s="19"/>
+      <c r="D70" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" s="37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="18">
         <v>69</v>
       </c>
-      <c r="F32" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="68"/>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="24">
-        <v>28</v>
-      </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="25" t="s">
+      <c r="C71" s="20"/>
+      <c r="D71" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G71" s="46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="18">
         <v>70</v>
       </c>
-      <c r="F33" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="68"/>
-    </row>
-    <row r="34" spans="2:7" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="28">
-        <v>44</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="66" t="s">
+      <c r="C72" s="20"/>
+      <c r="D72" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" s="46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="32">
         <v>71</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="68" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="28">
-        <v>45</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="68"/>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="24">
-        <v>29</v>
-      </c>
-      <c r="C36" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="24">
-        <v>30</v>
-      </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="68"/>
-    </row>
-    <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="24">
-        <v>31</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="24">
-        <v>32</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="24">
-        <v>33</v>
-      </c>
-      <c r="C40" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="24">
-        <v>34</v>
-      </c>
-      <c r="C41" s="73"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="68"/>
-    </row>
-    <row r="42" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="24">
-        <v>35</v>
-      </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" s="68"/>
-    </row>
-    <row r="43" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="24">
-        <v>36</v>
-      </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="68"/>
-    </row>
-    <row r="44" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="24">
-        <v>37</v>
-      </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="68"/>
-    </row>
-    <row r="45" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="24">
-        <v>38</v>
-      </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="68"/>
-    </row>
-    <row r="46" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="24">
-        <v>39</v>
-      </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" s="68"/>
-    </row>
-    <row r="47" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="24">
-        <v>40</v>
-      </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="68"/>
-    </row>
-    <row r="48" spans="2:7" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="28">
-        <v>47</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="68"/>
-    </row>
-    <row r="49" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="24">
-        <v>41</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="56" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="24">
-        <v>48</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G50" s="67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="24">
-        <v>49</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F51" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G51" s="68"/>
-    </row>
-    <row r="52" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="24">
-        <v>50</v>
-      </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G52" s="68"/>
-    </row>
-    <row r="53" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="24">
-        <v>51</v>
-      </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G53" s="68"/>
-    </row>
-    <row r="54" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="24">
-        <v>52</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G54" s="68"/>
-    </row>
-    <row r="55" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="24">
-        <v>53</v>
-      </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F55" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G55" s="68"/>
-    </row>
-    <row r="56" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="24">
-        <v>54</v>
-      </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G56" s="68"/>
-    </row>
-    <row r="57" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="24">
-        <v>55</v>
-      </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F57" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G57" s="68"/>
-    </row>
-    <row r="58" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="24">
-        <v>56</v>
-      </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F58" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G58" s="68"/>
-    </row>
-    <row r="59" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="24">
-        <v>67</v>
-      </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G59" s="68"/>
-    </row>
-    <row r="60" spans="2:7" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="33">
-        <v>58</v>
-      </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="F60" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G60" s="67" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="33">
-        <v>59</v>
-      </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F61" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G61" s="68"/>
-    </row>
-    <row r="62" spans="2:7" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="33">
-        <v>60</v>
-      </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G62" s="68"/>
-    </row>
-    <row r="63" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="24">
-        <v>61</v>
-      </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F63" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G63" s="68"/>
-    </row>
-    <row r="64" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="24">
-        <v>62</v>
-      </c>
-      <c r="C64" s="26"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F64" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G64" s="68"/>
-    </row>
-    <row r="65" spans="2:7" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="33">
-        <v>63</v>
-      </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F65" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G65" s="68"/>
-    </row>
-    <row r="66" spans="2:7" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="33">
-        <v>64</v>
-      </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F66" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G66" s="68"/>
-    </row>
-    <row r="67" spans="2:7" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="33">
-        <v>65</v>
-      </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F67" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G67" s="68"/>
-    </row>
-    <row r="68" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="24">
-        <v>66</v>
-      </c>
-      <c r="C68" s="26"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F68" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G68" s="68"/>
-    </row>
-    <row r="69" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="24">
-        <v>67</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F69" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G69" s="68"/>
-    </row>
-    <row r="70" spans="2:7" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="36">
-        <v>68</v>
-      </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F70" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G70" s="55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="24">
-        <v>69</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="F71" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G71" s="56" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="24">
-        <v>70</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="27" t="s">
+      <c r="C73" s="68"/>
+      <c r="D73" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="E72" s="25" t="s">
+      <c r="E73" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="F72" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G72" s="56" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="24">
-        <v>71</v>
-      </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F73" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G73" s="56" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="24">
-        <v>72</v>
-      </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="E74" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="F74" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G74" s="56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="24">
-        <v>73</v>
-      </c>
-      <c r="C75" s="38"/>
-      <c r="D75" s="47" t="s">
+      <c r="F73" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="F75" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G75" s="56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="24">
-        <v>74</v>
-      </c>
-      <c r="C76" s="38"/>
-      <c r="D76" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F76" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G76" s="56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="24">
-        <v>75</v>
-      </c>
-      <c r="C77" s="38"/>
-      <c r="D77" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="E77" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="F77" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G77" s="67" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="24">
-        <v>76</v>
-      </c>
-      <c r="C78" s="38"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="34" t="s">
+      <c r="G73" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="F78" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G78" s="67"/>
-    </row>
-    <row r="79" spans="2:7" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="24">
-        <v>77</v>
-      </c>
-      <c r="C79" s="38"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="F79" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G79" s="67"/>
-    </row>
-    <row r="80" spans="2:7" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="24">
-        <v>78</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F80" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G80" s="67"/>
-    </row>
-    <row r="81" spans="2:7" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="24">
-        <v>79</v>
-      </c>
-      <c r="C81" s="38"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="F81" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G81" s="67"/>
-    </row>
-    <row r="82" spans="2:7" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="24">
-        <v>80</v>
-      </c>
-      <c r="C82" s="38"/>
-      <c r="D82" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E82" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="F82" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G82" s="56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="24">
-        <v>81</v>
-      </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="E83" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="F83" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G83" s="56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="24">
-        <v>82</v>
-      </c>
-      <c r="C84" s="38"/>
-      <c r="D84" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="E84" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="F84" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G84" s="56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="41">
-        <v>83</v>
-      </c>
-      <c r="C85" s="42"/>
-      <c r="D85" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="E85" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="F85" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="G85" s="77" t="s">
-        <v>152</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="D77:D81"/>
+  <mergeCells count="35">
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="D30:D33"/>
     <mergeCell ref="D34:D35"/>
@@ -4498,7 +4000,6 @@
     <mergeCell ref="G60:G69"/>
     <mergeCell ref="G30:G33"/>
     <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G25:G29"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="G40:G48"/>
     <mergeCell ref="C10:C12"/>
@@ -4508,12 +4009,14 @@
     <mergeCell ref="C25:C29"/>
     <mergeCell ref="D25:D29"/>
     <mergeCell ref="D50:D59"/>
-    <mergeCell ref="G77:G81"/>
+    <mergeCell ref="D60:D69"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="G13:G23"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G28:G29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/相关资料/03 ASCMS灯具信息汇总/ASCMS 灯具信息汇总.xlsx
+++ b/相关资料/03 ASCMS灯具信息汇总/ASCMS 灯具信息汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="驱动对照表" sheetId="1" r:id="rId1"/>
@@ -2201,6 +2201,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2222,52 +2237,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2574,7 +2574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2588,34 +2588,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="58" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="51"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="59"/>
     </row>
     <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="41" t="s">
@@ -2632,7 +2632,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="54" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6">
@@ -2646,7 +2646,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="49"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="6">
         <v>1</v>
       </c>
@@ -2658,7 +2658,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="54" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5">
@@ -2672,7 +2672,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="49"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="11">
         <v>1</v>
       </c>
@@ -2698,7 +2698,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="54" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="5">
@@ -2712,7 +2712,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="49"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="5">
         <v>1</v>
       </c>
@@ -2724,13 +2724,13 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="49">
         <v>1</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="49">
         <v>0</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -2791,12 +2791,12 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2826,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G73"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2843,13 +2843,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="14"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -2896,10 +2896,10 @@
       <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="61" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="21" t="s">
@@ -2908,7 +2908,7 @@
       <c r="F4" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="68" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2916,24 +2916,24 @@
       <c r="B5" s="18">
         <v>3</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <v>4</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="61" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="21" t="s">
@@ -2942,7 +2942,7 @@
       <c r="F6" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="68" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2950,24 +2950,24 @@
       <c r="B7" s="18">
         <v>5</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="21" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="56"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <v>6</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="61" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="21" t="s">
@@ -2976,7 +2976,7 @@
       <c r="F8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="68" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2984,24 +2984,24 @@
       <c r="B9" s="18">
         <v>7</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="21" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="56"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <v>8</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="61" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="21" t="s">
@@ -3010,7 +3010,7 @@
       <c r="F10" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="68" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3018,38 +3018,38 @@
       <c r="B11" s="18">
         <v>9</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="56"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <v>10</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <v>11</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="61" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="21" t="s">
@@ -3058,7 +3058,7 @@
       <c r="F13" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="68" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3066,141 +3066,141 @@
       <c r="B14" s="18">
         <v>12</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="56"/>
+      <c r="G14" s="68"/>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <v>13</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="56"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <v>14</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="56"/>
+      <c r="G16" s="68"/>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <v>15</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="56"/>
+      <c r="G17" s="68"/>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <v>16</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="56"/>
+      <c r="G18" s="68"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <v>17</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="21" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="56"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <v>18</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="21" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="56"/>
+      <c r="G20" s="68"/>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <v>19</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="21" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="56"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <v>20</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="56"/>
+      <c r="G22" s="68"/>
     </row>
     <row r="23" spans="2:7" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22">
         <v>46</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F23" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="56"/>
+      <c r="G23" s="68"/>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
@@ -3226,10 +3226,10 @@
       <c r="B25" s="18">
         <v>22</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="61" t="s">
         <v>57</v>
       </c>
       <c r="E25" s="21" t="s">
@@ -3238,7 +3238,7 @@
       <c r="F25" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="67" t="s">
+      <c r="G25" s="70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3246,43 +3246,43 @@
       <c r="B26" s="18">
         <v>23</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F26" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="67"/>
+      <c r="G26" s="70"/>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <v>24</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="21" t="s">
         <v>60</v>
       </c>
       <c r="F27" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="67"/>
+      <c r="G27" s="70"/>
     </row>
     <row r="28" spans="2:7" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="22">
         <v>42</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="21" t="s">
         <v>61</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="56" t="s">
+      <c r="G28" s="68" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3290,24 +3290,24 @@
       <c r="B29" s="22">
         <v>43</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="21" t="s">
         <v>62</v>
       </c>
       <c r="F29" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="56"/>
+      <c r="G29" s="68"/>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18">
         <v>25</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="61" t="s">
         <v>64</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -3316,7 +3316,7 @@
       <c r="F30" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="68" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3324,50 +3324,50 @@
       <c r="B31" s="18">
         <v>26</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="19" t="s">
         <v>66</v>
       </c>
       <c r="F31" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="56"/>
+      <c r="G31" s="68"/>
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18">
         <v>27</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="19" t="s">
         <v>67</v>
       </c>
       <c r="F32" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="56"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18">
         <v>28</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="19" t="s">
         <v>68</v>
       </c>
       <c r="F33" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="56"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="2:7" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="22">
         <v>44</v>
       </c>
       <c r="C34" s="25"/>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="61" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="19" t="s">
@@ -3376,7 +3376,7 @@
       <c r="F34" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="56" t="s">
+      <c r="G34" s="68" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3385,23 +3385,23 @@
         <v>45</v>
       </c>
       <c r="C35" s="25"/>
-      <c r="D35" s="58"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="19" t="s">
         <v>71</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="56"/>
+      <c r="G35" s="68"/>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18">
         <v>29</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="58" t="s">
+      <c r="D36" s="61" t="s">
         <v>73</v>
       </c>
       <c r="E36" s="21" t="s">
@@ -3410,7 +3410,7 @@
       <c r="F36" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="56" t="s">
+      <c r="G36" s="68" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3418,15 +3418,15 @@
       <c r="B37" s="18">
         <v>30</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="61"/>
       <c r="E37" s="21" t="s">
         <v>75</v>
       </c>
       <c r="F37" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="56"/>
+      <c r="G37" s="68"/>
     </row>
     <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18">
@@ -3484,7 +3484,7 @@
       <c r="F40" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="56" t="s">
+      <c r="G40" s="68" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
       <c r="F41" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="56"/>
+      <c r="G41" s="68"/>
     </row>
     <row r="42" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18">
@@ -3514,7 +3514,7 @@
       <c r="F42" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G42" s="56"/>
+      <c r="G42" s="68"/>
     </row>
     <row r="43" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18">
@@ -3528,7 +3528,7 @@
       <c r="F43" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G43" s="56"/>
+      <c r="G43" s="68"/>
     </row>
     <row r="44" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18">
@@ -3542,7 +3542,7 @@
       <c r="F44" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="56"/>
+      <c r="G44" s="68"/>
     </row>
     <row r="45" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="18">
@@ -3556,7 +3556,7 @@
       <c r="F45" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="56"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="18">
@@ -3570,7 +3570,7 @@
       <c r="F46" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="56"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18">
@@ -3584,7 +3584,7 @@
       <c r="F47" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="56"/>
+      <c r="G47" s="68"/>
     </row>
     <row r="48" spans="2:7" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="22">
@@ -3598,7 +3598,7 @@
       <c r="F48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="56"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="18">
@@ -3625,7 +3625,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="20"/>
-      <c r="D50" s="59" t="s">
+      <c r="D50" s="69" t="s">
         <v>96</v>
       </c>
       <c r="E50" s="19" t="s">
@@ -3634,7 +3634,7 @@
       <c r="F50" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="55" t="s">
+      <c r="G50" s="67" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3643,133 +3643,133 @@
         <v>49</v>
       </c>
       <c r="C51" s="20"/>
-      <c r="D51" s="59"/>
+      <c r="D51" s="69"/>
       <c r="E51" s="19" t="s">
         <v>98</v>
       </c>
       <c r="F51" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G51" s="56"/>
+      <c r="G51" s="68"/>
     </row>
     <row r="52" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="18">
         <v>50</v>
       </c>
       <c r="C52" s="20"/>
-      <c r="D52" s="59"/>
+      <c r="D52" s="69"/>
       <c r="E52" s="19" t="s">
         <v>99</v>
       </c>
       <c r="F52" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G52" s="56"/>
+      <c r="G52" s="68"/>
     </row>
     <row r="53" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="18">
         <v>51</v>
       </c>
       <c r="C53" s="20"/>
-      <c r="D53" s="59"/>
+      <c r="D53" s="69"/>
       <c r="E53" s="19" t="s">
         <v>100</v>
       </c>
       <c r="F53" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G53" s="56"/>
+      <c r="G53" s="68"/>
     </row>
     <row r="54" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="18">
         <v>52</v>
       </c>
       <c r="C54" s="20"/>
-      <c r="D54" s="59"/>
+      <c r="D54" s="69"/>
       <c r="E54" s="19" t="s">
         <v>101</v>
       </c>
       <c r="F54" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G54" s="56"/>
+      <c r="G54" s="68"/>
     </row>
     <row r="55" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="18">
         <v>53</v>
       </c>
       <c r="C55" s="20"/>
-      <c r="D55" s="59"/>
+      <c r="D55" s="69"/>
       <c r="E55" s="19" t="s">
         <v>102</v>
       </c>
       <c r="F55" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G55" s="56"/>
+      <c r="G55" s="68"/>
     </row>
     <row r="56" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="18">
         <v>54</v>
       </c>
       <c r="C56" s="20"/>
-      <c r="D56" s="59"/>
+      <c r="D56" s="69"/>
       <c r="E56" s="19" t="s">
         <v>103</v>
       </c>
       <c r="F56" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G56" s="56"/>
+      <c r="G56" s="68"/>
     </row>
     <row r="57" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="18">
         <v>55</v>
       </c>
       <c r="C57" s="20"/>
-      <c r="D57" s="59"/>
+      <c r="D57" s="69"/>
       <c r="E57" s="19" t="s">
         <v>104</v>
       </c>
       <c r="F57" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G57" s="56"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="58" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="18">
         <v>56</v>
       </c>
       <c r="C58" s="20"/>
-      <c r="D58" s="59"/>
+      <c r="D58" s="69"/>
       <c r="E58" s="19" t="s">
         <v>105</v>
       </c>
       <c r="F58" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G58" s="56"/>
+      <c r="G58" s="68"/>
     </row>
     <row r="59" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="18">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C59" s="20"/>
-      <c r="D59" s="59"/>
+      <c r="D59" s="69"/>
       <c r="E59" s="19" t="s">
         <v>106</v>
       </c>
       <c r="F59" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G59" s="56"/>
+      <c r="G59" s="68"/>
     </row>
     <row r="60" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="27">
         <v>58</v>
       </c>
       <c r="C60" s="28"/>
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="69" t="s">
         <v>107</v>
       </c>
       <c r="E60" s="19" t="s">
@@ -3778,7 +3778,7 @@
       <c r="F60" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G60" s="55" t="s">
+      <c r="G60" s="67" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3787,126 +3787,126 @@
         <v>59</v>
       </c>
       <c r="C61" s="28"/>
-      <c r="D61" s="59"/>
+      <c r="D61" s="69"/>
       <c r="E61" s="19" t="s">
         <v>109</v>
       </c>
       <c r="F61" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G61" s="56"/>
+      <c r="G61" s="68"/>
     </row>
     <row r="62" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="27">
         <v>60</v>
       </c>
       <c r="C62" s="28"/>
-      <c r="D62" s="59"/>
+      <c r="D62" s="69"/>
       <c r="E62" s="19" t="s">
         <v>110</v>
       </c>
       <c r="F62" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G62" s="56"/>
+      <c r="G62" s="68"/>
     </row>
     <row r="63" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="18">
         <v>61</v>
       </c>
       <c r="C63" s="20"/>
-      <c r="D63" s="59"/>
+      <c r="D63" s="69"/>
       <c r="E63" s="19" t="s">
         <v>111</v>
       </c>
       <c r="F63" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G63" s="56"/>
+      <c r="G63" s="68"/>
     </row>
     <row r="64" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="18">
         <v>62</v>
       </c>
       <c r="C64" s="20"/>
-      <c r="D64" s="59"/>
+      <c r="D64" s="69"/>
       <c r="E64" s="19" t="s">
         <v>112</v>
       </c>
       <c r="F64" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G64" s="56"/>
+      <c r="G64" s="68"/>
     </row>
     <row r="65" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="27">
         <v>63</v>
       </c>
       <c r="C65" s="28"/>
-      <c r="D65" s="59"/>
+      <c r="D65" s="69"/>
       <c r="E65" s="19" t="s">
         <v>113</v>
       </c>
       <c r="F65" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G65" s="56"/>
+      <c r="G65" s="68"/>
     </row>
     <row r="66" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="27">
         <v>64</v>
       </c>
       <c r="C66" s="28"/>
-      <c r="D66" s="59"/>
+      <c r="D66" s="69"/>
       <c r="E66" s="19" t="s">
         <v>114</v>
       </c>
       <c r="F66" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G66" s="56"/>
+      <c r="G66" s="68"/>
     </row>
     <row r="67" spans="2:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="27">
         <v>65</v>
       </c>
       <c r="C67" s="28"/>
-      <c r="D67" s="59"/>
+      <c r="D67" s="69"/>
       <c r="E67" s="19" t="s">
         <v>115</v>
       </c>
       <c r="F67" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G67" s="56"/>
+      <c r="G67" s="68"/>
     </row>
     <row r="68" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="18">
         <v>66</v>
       </c>
       <c r="C68" s="20"/>
-      <c r="D68" s="59"/>
+      <c r="D68" s="69"/>
       <c r="E68" s="19" t="s">
         <v>116</v>
       </c>
       <c r="F68" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G68" s="56"/>
+      <c r="G68" s="68"/>
     </row>
     <row r="69" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="18">
         <v>67</v>
       </c>
       <c r="C69" s="20"/>
-      <c r="D69" s="59"/>
+      <c r="D69" s="69"/>
       <c r="E69" s="19" t="s">
         <v>117</v>
       </c>
       <c r="F69" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G69" s="56"/>
+      <c r="G69" s="68"/>
     </row>
     <row r="70" spans="2:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="30">
@@ -3966,11 +3966,11 @@
       <c r="B73" s="32">
         <v>71</v>
       </c>
-      <c r="C73" s="68"/>
-      <c r="D73" s="69" t="s">
+      <c r="C73" s="50"/>
+      <c r="D73" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="E73" s="70" t="s">
+      <c r="E73" s="52" t="s">
         <v>125</v>
       </c>
       <c r="F73" s="39" t="s">
@@ -3982,11 +3982,21 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G23"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G50:G59"/>
+    <mergeCell ref="G60:G69"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G40:G48"/>
     <mergeCell ref="C40:C47"/>
     <mergeCell ref="D40:D48"/>
     <mergeCell ref="B1:F1"/>
@@ -3996,27 +4006,17 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G50:G59"/>
-    <mergeCell ref="G60:G69"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G40:G48"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="C13:C23"/>
     <mergeCell ref="D13:D23"/>
     <mergeCell ref="C25:C29"/>
     <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G23"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
